--- a/lab/lab5data.xlsx
+++ b/lab/lab5data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190">
   <si>
     <t xml:space="preserve">book3, </t>
   </si>
@@ -91,6 +91,18 @@
     <t>93,</t>
   </si>
   <si>
+    <t>1,</t>
+  </si>
+  <si>
+    <t>card1,</t>
+  </si>
+  <si>
+    <t>unit1,</t>
+  </si>
+  <si>
+    <t>category1</t>
+  </si>
+  <si>
     <t xml:space="preserve">book7, </t>
   </si>
   <si>
@@ -109,6 +121,18 @@
     <t xml:space="preserve">91.02, </t>
   </si>
   <si>
+    <t>2,</t>
+  </si>
+  <si>
+    <t>card2,</t>
+  </si>
+  <si>
+    <t>unit2,</t>
+  </si>
+  <si>
+    <t>category2</t>
+  </si>
+  <si>
     <t xml:space="preserve">book8, </t>
   </si>
   <si>
@@ -127,6 +151,18 @@
     <t>94,</t>
   </si>
   <si>
+    <t>3,</t>
+  </si>
+  <si>
+    <t>card3,</t>
+  </si>
+  <si>
+    <t>unit3,</t>
+  </si>
+  <si>
+    <t>category3</t>
+  </si>
+  <si>
     <t xml:space="preserve">book9, </t>
   </si>
   <si>
@@ -145,6 +181,18 @@
     <t xml:space="preserve">91.03, </t>
   </si>
   <si>
+    <t>4,</t>
+  </si>
+  <si>
+    <t>card4,</t>
+  </si>
+  <si>
+    <t>unit4,</t>
+  </si>
+  <si>
+    <t>category4</t>
+  </si>
+  <si>
     <t xml:space="preserve">book10, </t>
   </si>
   <si>
@@ -163,6 +211,18 @@
     <t>95,</t>
   </si>
   <si>
+    <t>5,</t>
+  </si>
+  <si>
+    <t>card5,</t>
+  </si>
+  <si>
+    <t>unit5,</t>
+  </si>
+  <si>
+    <t>category5</t>
+  </si>
+  <si>
     <t xml:space="preserve">book11, </t>
   </si>
   <si>
@@ -181,6 +241,18 @@
     <t xml:space="preserve">91.04, </t>
   </si>
   <si>
+    <t>6,</t>
+  </si>
+  <si>
+    <t>card6,</t>
+  </si>
+  <si>
+    <t>unit6,</t>
+  </si>
+  <si>
+    <t>category6</t>
+  </si>
+  <si>
     <t xml:space="preserve">book12, </t>
   </si>
   <si>
@@ -199,6 +271,18 @@
     <t>96,</t>
   </si>
   <si>
+    <t>7,</t>
+  </si>
+  <si>
+    <t>card7,</t>
+  </si>
+  <si>
+    <t>unit7,</t>
+  </si>
+  <si>
+    <t>category7</t>
+  </si>
+  <si>
     <t xml:space="preserve">book13, </t>
   </si>
   <si>
@@ -217,6 +301,18 @@
     <t xml:space="preserve">91.05, </t>
   </si>
   <si>
+    <t>8,</t>
+  </si>
+  <si>
+    <t>card8,</t>
+  </si>
+  <si>
+    <t>unit8,</t>
+  </si>
+  <si>
+    <t>category8</t>
+  </si>
+  <si>
     <t xml:space="preserve">book14, </t>
   </si>
   <si>
@@ -238,6 +334,18 @@
     <t>97,</t>
   </si>
   <si>
+    <t>9,</t>
+  </si>
+  <si>
+    <t>card9,</t>
+  </si>
+  <si>
+    <t>unit9,</t>
+  </si>
+  <si>
+    <t>category9</t>
+  </si>
+  <si>
     <t xml:space="preserve">book15, </t>
   </si>
   <si>
@@ -256,6 +364,18 @@
     <t xml:space="preserve">91.06, </t>
   </si>
   <si>
+    <t>10,</t>
+  </si>
+  <si>
+    <t>card10,</t>
+  </si>
+  <si>
+    <t>unit10,</t>
+  </si>
+  <si>
+    <t>category10</t>
+  </si>
+  <si>
     <t xml:space="preserve">book16, </t>
   </si>
   <si>
@@ -272,6 +392,18 @@
   </si>
   <si>
     <t>98,</t>
+  </si>
+  <si>
+    <t>11,</t>
+  </si>
+  <si>
+    <t>card11,</t>
+  </si>
+  <si>
+    <t>unit11,</t>
+  </si>
+  <si>
+    <t>category11</t>
   </si>
   <si>
     <t xml:space="preserve">book17, </t>
@@ -461,8 +593,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -480,6 +612,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -494,14 +633,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -509,9 +640,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -520,45 +658,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -587,8 +686,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -601,23 +716,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -638,181 +770,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -823,6 +955,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -845,16 +986,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -866,21 +1007,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -915,11 +1041,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -928,148 +1060,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1399,10 +1531,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="F9:M32"/>
+  <dimension ref="F9:S32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -1488,7 +1620,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" ht="18" spans="6:13">
+    <row r="12" ht="18" spans="6:19">
       <c r="F12" s="1" t="s">
         <v>19</v>
       </c>
@@ -1513,288 +1645,420 @@
       <c r="M12">
         <v>6</v>
       </c>
+      <c r="P12" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>26</v>
+      </c>
+      <c r="R12" t="s">
+        <v>27</v>
+      </c>
+      <c r="S12" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="13" ht="18" spans="6:13">
+    <row r="13" ht="18" spans="6:19">
       <c r="F13" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G13" t="s">
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I13" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J13" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="K13" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L13" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M13">
         <v>7</v>
       </c>
+      <c r="P13" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>36</v>
+      </c>
+      <c r="R13" t="s">
+        <v>37</v>
+      </c>
+      <c r="S13" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="14" ht="18" spans="6:13">
+    <row r="14" ht="18" spans="6:19">
       <c r="F14" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G14" t="s">
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="I14" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="J14" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="K14" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="L14" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="M14">
         <v>8</v>
       </c>
+      <c r="P14" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>46</v>
+      </c>
+      <c r="R14" t="s">
+        <v>47</v>
+      </c>
+      <c r="S14" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="15" ht="18" spans="6:13">
+    <row r="15" ht="18" spans="6:19">
       <c r="F15" s="1" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="G15" t="s">
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="I15" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="J15" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="K15" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="L15" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="M15">
         <v>9</v>
       </c>
+      <c r="P15" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>56</v>
+      </c>
+      <c r="R15" t="s">
+        <v>57</v>
+      </c>
+      <c r="S15" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="16" ht="18" spans="6:13">
+    <row r="16" ht="18" spans="6:19">
       <c r="F16" s="1" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="G16" t="s">
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="I16" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="J16" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="K16" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="L16" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="M16">
         <v>10</v>
       </c>
+      <c r="P16" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>66</v>
+      </c>
+      <c r="R16" t="s">
+        <v>67</v>
+      </c>
+      <c r="S16" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="17" ht="18" spans="6:13">
+    <row r="17" ht="18" spans="6:19">
       <c r="F17" s="1" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="G17" t="s">
         <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="I17" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="J17" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="K17" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="L17" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="M17">
         <v>11</v>
       </c>
+      <c r="P17" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>76</v>
+      </c>
+      <c r="R17" t="s">
+        <v>77</v>
+      </c>
+      <c r="S17" t="s">
+        <v>78</v>
+      </c>
     </row>
-    <row r="18" ht="18" spans="6:13">
+    <row r="18" ht="18" spans="6:19">
       <c r="F18" s="1" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="G18" t="s">
         <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="I18" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="J18" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="K18" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="L18" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="M18">
         <v>12</v>
       </c>
+      <c r="P18" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>86</v>
+      </c>
+      <c r="R18" t="s">
+        <v>87</v>
+      </c>
+      <c r="S18" t="s">
+        <v>88</v>
+      </c>
     </row>
-    <row r="19" ht="18" spans="6:13">
+    <row r="19" ht="18" spans="6:19">
       <c r="F19" s="1" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="G19" t="s">
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="I19" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="J19" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="K19" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="L19" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="M19">
         <v>13</v>
       </c>
+      <c r="P19" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>96</v>
+      </c>
+      <c r="R19" t="s">
+        <v>97</v>
+      </c>
+      <c r="S19" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="20" ht="18" spans="6:13">
+    <row r="20" ht="18" spans="6:19">
       <c r="F20" s="1" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="G20" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="H20" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="I20" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="J20" t="s">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c r="K20" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="L20" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="M20">
         <v>14</v>
       </c>
+      <c r="P20" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>107</v>
+      </c>
+      <c r="R20" t="s">
+        <v>108</v>
+      </c>
+      <c r="S20" t="s">
+        <v>109</v>
+      </c>
     </row>
-    <row r="21" ht="18" spans="6:13">
+    <row r="21" ht="18" spans="6:19">
       <c r="F21" s="1" t="s">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="G21" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="H21" t="s">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="I21" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="J21" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="K21" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="L21" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="M21">
         <v>15</v>
       </c>
+      <c r="P21" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>117</v>
+      </c>
+      <c r="R21" t="s">
+        <v>118</v>
+      </c>
+      <c r="S21" t="s">
+        <v>119</v>
+      </c>
     </row>
-    <row r="22" ht="18" spans="6:13">
+    <row r="22" ht="18" spans="6:19">
       <c r="F22" s="1" t="s">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="G22" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="H22" t="s">
-        <v>81</v>
+        <v>121</v>
       </c>
       <c r="I22" t="s">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="J22" t="s">
-        <v>83</v>
+        <v>123</v>
       </c>
       <c r="K22" t="s">
-        <v>84</v>
+        <v>124</v>
       </c>
       <c r="L22" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="M22">
         <v>16</v>
+      </c>
+      <c r="P22" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>127</v>
+      </c>
+      <c r="R22" t="s">
+        <v>128</v>
+      </c>
+      <c r="S22" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="23" ht="18" spans="6:13">
       <c r="F23" s="1" t="s">
-        <v>86</v>
+        <v>130</v>
       </c>
       <c r="G23" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="H23" t="s">
-        <v>87</v>
+        <v>131</v>
       </c>
       <c r="I23" t="s">
-        <v>88</v>
+        <v>132</v>
       </c>
       <c r="J23" t="s">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="K23" t="s">
-        <v>90</v>
+        <v>134</v>
       </c>
       <c r="L23" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="M23">
         <v>17</v>
@@ -1802,25 +2066,25 @@
     </row>
     <row r="24" ht="18" spans="6:13">
       <c r="F24" s="1" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
       <c r="G24" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="H24" t="s">
-        <v>93</v>
+        <v>137</v>
       </c>
       <c r="I24" t="s">
-        <v>94</v>
+        <v>138</v>
       </c>
       <c r="J24" t="s">
-        <v>95</v>
+        <v>139</v>
       </c>
       <c r="K24" t="s">
-        <v>96</v>
+        <v>140</v>
       </c>
       <c r="L24" t="s">
-        <v>97</v>
+        <v>141</v>
       </c>
       <c r="M24">
         <v>18</v>
@@ -1828,25 +2092,25 @@
     </row>
     <row r="25" ht="18" spans="6:13">
       <c r="F25" s="1" t="s">
-        <v>98</v>
+        <v>142</v>
       </c>
       <c r="G25" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="H25" t="s">
-        <v>99</v>
+        <v>143</v>
       </c>
       <c r="I25" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="J25" t="s">
-        <v>101</v>
+        <v>145</v>
       </c>
       <c r="K25" t="s">
-        <v>102</v>
+        <v>146</v>
       </c>
       <c r="L25" t="s">
-        <v>103</v>
+        <v>147</v>
       </c>
       <c r="M25">
         <v>19</v>
@@ -1854,25 +2118,25 @@
     </row>
     <row r="26" ht="18" spans="6:13">
       <c r="F26" s="1" t="s">
-        <v>104</v>
+        <v>148</v>
       </c>
       <c r="G26" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="H26" t="s">
-        <v>105</v>
+        <v>149</v>
       </c>
       <c r="I26" t="s">
-        <v>106</v>
+        <v>150</v>
       </c>
       <c r="J26" t="s">
-        <v>107</v>
+        <v>151</v>
       </c>
       <c r="K26" t="s">
-        <v>108</v>
+        <v>152</v>
       </c>
       <c r="L26" t="s">
-        <v>109</v>
+        <v>153</v>
       </c>
       <c r="M26">
         <v>20</v>
@@ -1880,25 +2144,25 @@
     </row>
     <row r="27" ht="18" spans="6:13">
       <c r="F27" s="1" t="s">
-        <v>110</v>
+        <v>154</v>
       </c>
       <c r="G27" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="H27" t="s">
-        <v>111</v>
+        <v>155</v>
       </c>
       <c r="I27" t="s">
-        <v>112</v>
+        <v>156</v>
       </c>
       <c r="J27" t="s">
-        <v>113</v>
+        <v>157</v>
       </c>
       <c r="K27" t="s">
-        <v>114</v>
+        <v>158</v>
       </c>
       <c r="L27" t="s">
-        <v>115</v>
+        <v>159</v>
       </c>
       <c r="M27">
         <v>21</v>
@@ -1906,25 +2170,25 @@
     </row>
     <row r="28" ht="18" spans="6:13">
       <c r="F28" s="1" t="s">
-        <v>116</v>
+        <v>160</v>
       </c>
       <c r="G28" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="H28" t="s">
-        <v>117</v>
+        <v>161</v>
       </c>
       <c r="I28" t="s">
-        <v>118</v>
+        <v>162</v>
       </c>
       <c r="J28" t="s">
-        <v>119</v>
+        <v>163</v>
       </c>
       <c r="K28" t="s">
-        <v>120</v>
+        <v>164</v>
       </c>
       <c r="L28" t="s">
-        <v>121</v>
+        <v>165</v>
       </c>
       <c r="M28">
         <v>22</v>
@@ -1932,25 +2196,25 @@
     </row>
     <row r="29" ht="18" spans="6:13">
       <c r="F29" s="1" t="s">
-        <v>122</v>
+        <v>166</v>
       </c>
       <c r="G29" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="H29" t="s">
-        <v>123</v>
+        <v>167</v>
       </c>
       <c r="I29" t="s">
-        <v>124</v>
+        <v>168</v>
       </c>
       <c r="J29" t="s">
-        <v>125</v>
+        <v>169</v>
       </c>
       <c r="K29" t="s">
-        <v>126</v>
+        <v>170</v>
       </c>
       <c r="L29" t="s">
-        <v>127</v>
+        <v>171</v>
       </c>
       <c r="M29">
         <v>23</v>
@@ -1958,25 +2222,25 @@
     </row>
     <row r="30" ht="18" spans="6:13">
       <c r="F30" s="1" t="s">
-        <v>128</v>
+        <v>172</v>
       </c>
       <c r="G30" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="H30" t="s">
-        <v>129</v>
+        <v>173</v>
       </c>
       <c r="I30" t="s">
-        <v>130</v>
+        <v>174</v>
       </c>
       <c r="J30" t="s">
-        <v>131</v>
+        <v>175</v>
       </c>
       <c r="K30" t="s">
-        <v>132</v>
+        <v>176</v>
       </c>
       <c r="L30" t="s">
-        <v>133</v>
+        <v>177</v>
       </c>
       <c r="M30">
         <v>24</v>
@@ -1984,25 +2248,25 @@
     </row>
     <row r="31" ht="18" spans="6:13">
       <c r="F31" s="1" t="s">
-        <v>134</v>
+        <v>178</v>
       </c>
       <c r="G31" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="H31" t="s">
-        <v>135</v>
+        <v>179</v>
       </c>
       <c r="I31" t="s">
-        <v>136</v>
+        <v>180</v>
       </c>
       <c r="J31" t="s">
-        <v>137</v>
+        <v>181</v>
       </c>
       <c r="K31" t="s">
-        <v>138</v>
+        <v>182</v>
       </c>
       <c r="L31" t="s">
-        <v>139</v>
+        <v>183</v>
       </c>
       <c r="M31">
         <v>25</v>
@@ -2010,25 +2274,25 @@
     </row>
     <row r="32" ht="18" spans="6:13">
       <c r="F32" s="1" t="s">
-        <v>140</v>
+        <v>184</v>
       </c>
       <c r="G32" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="H32" t="s">
-        <v>141</v>
+        <v>185</v>
       </c>
       <c r="I32" t="s">
-        <v>142</v>
+        <v>186</v>
       </c>
       <c r="J32" t="s">
-        <v>143</v>
+        <v>187</v>
       </c>
       <c r="K32" t="s">
-        <v>144</v>
+        <v>188</v>
       </c>
       <c r="L32" t="s">
-        <v>145</v>
+        <v>189</v>
       </c>
       <c r="M32">
         <v>26</v>
